--- a/data/GoodCSVs/BobbyJindal.xlsx
+++ b/data/GoodCSVs/BobbyJindal.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\campaign-contributions\data\GoodCSVs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>AL</t>
   </si>
@@ -166,6 +171,45 @@
   </si>
   <si>
     <t>state_total</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>DE</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>HI</t>
+  </si>
+  <si>
+    <t>KY</t>
+  </si>
+  <si>
+    <t>ME</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>MT</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>WV</t>
+  </si>
+  <si>
+    <t>WY</t>
   </si>
 </sst>
 </file>
@@ -650,7 +694,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -659,22 +703,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -726,6 +760,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -773,7 +810,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -808,7 +845,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1017,10 +1054,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1064,304 +1102,1216 @@
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6">
+        <v>0</v>
+      </c>
+      <c r="C2" s="7">
+        <v>0</v>
+      </c>
+      <c r="D2" s="6">
         <v>2500</v>
       </c>
-      <c r="H2">
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="6">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <v>259</v>
+      </c>
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
       </c>
       <c r="L2" s="4">
         <v>2759</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>2700</v>
-      </c>
-      <c r="G3" s="7">
-        <v>1250</v>
-      </c>
-      <c r="L3" s="4">
-        <v>3950</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="6">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7">
+        <v>0</v>
+      </c>
+      <c r="D3" s="6">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6">
+        <v>0</v>
+      </c>
+      <c r="G3" s="6">
+        <v>0</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0</v>
+      </c>
+      <c r="I3" s="6">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6">
+        <v>0</v>
+      </c>
+      <c r="K3" s="6">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="8">
+      <c r="B4" s="6">
+        <v>0</v>
+      </c>
+      <c r="C4" s="6">
         <v>5900</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="6">
         <v>2950</v>
       </c>
-      <c r="G4" s="10">
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
         <v>40</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="6">
         <v>25</v>
       </c>
-      <c r="I4" s="12">
+      <c r="I4" s="7">
         <v>10</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
+        <v>0</v>
       </c>
       <c r="L4" s="4">
         <v>8925</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="6">
+        <v>0</v>
+      </c>
+      <c r="C5" s="7">
+        <v>2700</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>1250</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="6">
+        <v>0</v>
+      </c>
+      <c r="L5" s="4">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B6" s="7">
         <v>500</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C6" s="6">
         <v>5000</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D6" s="6">
         <v>4200</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E6" s="6">
         <v>1250</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F6" s="6">
         <v>6150</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G6" s="6">
         <v>370.16</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H6" s="6">
         <v>5761.1</v>
       </c>
-      <c r="L5" s="4">
-        <v>23231.260000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>4</v>
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6">
+        <v>0</v>
+      </c>
+      <c r="K6" s="6">
+        <v>0</v>
       </c>
       <c r="L6" s="4">
-        <v>7000</v>
+        <v>23231.26</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="7">
+        <v>0</v>
+      </c>
+      <c r="C7" s="6">
+        <v>5650</v>
+      </c>
+      <c r="D7" s="6">
+        <v>350</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6">
+        <v>0</v>
+      </c>
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>0</v>
       </c>
       <c r="L7" s="4">
-        <v>2700</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="7">
+        <v>0</v>
+      </c>
+      <c r="C8" s="6">
+        <v>2700</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
+        <v>0</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0</v>
+      </c>
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0</v>
+      </c>
+      <c r="K8" s="6">
+        <v>0</v>
       </c>
       <c r="L8" s="4">
-        <v>32050</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L9" s="4">
-        <v>3600</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="B9" s="7">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
+        <v>0</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0</v>
+      </c>
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0</v>
+      </c>
+      <c r="K9" s="6">
+        <v>0</v>
+      </c>
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="L10" s="4">
-        <v>6420.16</v>
+        <v>52</v>
+      </c>
+      <c r="B10" s="7">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="6">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="6">
+        <v>0</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6">
+        <v>0</v>
+      </c>
+      <c r="K10" s="6">
+        <v>0</v>
+      </c>
+      <c r="L10" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="B11" s="7">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>11950</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>6100</v>
+      </c>
+      <c r="G11">
+        <v>2700</v>
+      </c>
+      <c r="H11">
+        <v>11300</v>
+      </c>
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6">
+        <v>0</v>
+      </c>
+      <c r="K11" s="6">
+        <v>0</v>
       </c>
       <c r="L11" s="4">
-        <v>1050</v>
+        <v>32050</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B12" s="7">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>1750</v>
+      </c>
+      <c r="D12">
+        <v>500</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>300</v>
+      </c>
+      <c r="G12">
+        <v>800</v>
+      </c>
+      <c r="H12">
+        <v>250</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6">
+        <v>0</v>
+      </c>
+      <c r="K12" s="6">
+        <v>0</v>
       </c>
       <c r="L12" s="4">
-        <v>5500</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="L13" s="4">
-        <v>3450</v>
+        <v>53</v>
+      </c>
+      <c r="B13" s="7">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6">
+        <v>0</v>
+      </c>
+      <c r="G13" s="6">
+        <v>0</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0</v>
+      </c>
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6">
+        <v>0</v>
+      </c>
+      <c r="K13" s="6">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="B14" s="7">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>250</v>
+      </c>
+      <c r="D14">
+        <v>300</v>
+      </c>
+      <c r="E14">
+        <v>250</v>
+      </c>
+      <c r="F14">
+        <v>150</v>
+      </c>
+      <c r="G14" s="6">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>100</v>
+      </c>
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6">
+        <v>0</v>
+      </c>
+      <c r="K14" s="6">
+        <v>0</v>
       </c>
       <c r="L14" s="4">
-        <v>250</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
+      </c>
+      <c r="B15" s="7">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>5400</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="6">
+        <v>0</v>
+      </c>
+      <c r="K15" s="6">
+        <v>0</v>
       </c>
       <c r="L15" s="4">
-        <v>934939.32</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B16" s="7">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>500</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>250</v>
+      </c>
+      <c r="G16">
+        <v>2700</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="6">
+        <v>0</v>
+      </c>
+      <c r="K16" s="6">
+        <v>0</v>
       </c>
       <c r="L16" s="4">
-        <v>250</v>
+        <v>3450</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>8</v>
+      </c>
+      <c r="B17" s="7">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>250</v>
+      </c>
+      <c r="E17">
+        <v>500</v>
+      </c>
+      <c r="F17" s="4">
+        <v>3670.16</v>
+      </c>
+      <c r="G17">
+        <v>900</v>
+      </c>
+      <c r="H17">
+        <v>1100</v>
+      </c>
+      <c r="I17" s="7">
+        <v>0</v>
+      </c>
+      <c r="J17" s="6">
+        <v>0</v>
+      </c>
+      <c r="K17" s="6">
+        <v>0</v>
       </c>
       <c r="L17" s="4">
-        <v>9650</v>
+        <v>6420.16</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="B18" s="7">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>250</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18" s="7">
+        <v>0</v>
+      </c>
+      <c r="J18" s="6">
+        <v>0</v>
+      </c>
+      <c r="K18" s="6">
+        <v>0</v>
       </c>
       <c r="L18" s="4">
-        <v>11300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="4">
-        <v>12060</v>
+        <v>54</v>
+      </c>
+      <c r="B19" s="7">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="7">
+        <v>0</v>
+      </c>
+      <c r="J19" s="6">
+        <v>0</v>
+      </c>
+      <c r="K19" s="6">
+        <v>0</v>
+      </c>
+      <c r="L19" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>18</v>
+      <c r="A20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="6">
+        <v>35850</v>
+      </c>
+      <c r="C20">
+        <v>378600</v>
+      </c>
+      <c r="D20">
+        <v>73000</v>
+      </c>
+      <c r="E20">
+        <v>168699</v>
+      </c>
+      <c r="F20">
+        <v>164240.32000000001</v>
+      </c>
+      <c r="G20">
+        <v>69150</v>
+      </c>
+      <c r="H20">
+        <v>45400</v>
+      </c>
+      <c r="I20" s="7">
+        <v>0</v>
+      </c>
+      <c r="J20" s="6">
+        <v>0</v>
+      </c>
+      <c r="K20" s="6">
+        <v>0</v>
       </c>
       <c r="L20" s="4">
-        <v>13500</v>
+        <v>934939.32</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L21" s="4">
-        <v>15885</v>
+        <v>55</v>
+      </c>
+      <c r="B21" s="6">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21" s="7">
+        <v>0</v>
+      </c>
+      <c r="J21" s="6">
+        <v>0</v>
+      </c>
+      <c r="K21" s="6">
+        <v>0</v>
+      </c>
+      <c r="L21" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
+      </c>
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>3150</v>
+      </c>
+      <c r="D22">
+        <v>750</v>
+      </c>
+      <c r="E22">
+        <v>2700</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>350</v>
+      </c>
+      <c r="H22">
+        <v>2700</v>
+      </c>
+      <c r="I22" s="7">
+        <v>0</v>
+      </c>
+      <c r="J22" s="6">
+        <v>0</v>
+      </c>
+      <c r="K22" s="6">
+        <v>0</v>
       </c>
       <c r="L22" s="4">
-        <v>300</v>
+        <v>9650</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
+      </c>
+      <c r="B23" s="6">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>250</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23" s="7">
+        <v>0</v>
+      </c>
+      <c r="J23" s="6">
+        <v>0</v>
+      </c>
+      <c r="K23" s="6">
+        <v>0</v>
       </c>
       <c r="L23" s="4">
-        <v>1250</v>
+        <v>250</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>16</v>
+      </c>
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>250</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>250</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>10800</v>
+      </c>
+      <c r="I24" s="7">
+        <v>0</v>
+      </c>
+      <c r="J24" s="6">
+        <v>0</v>
+      </c>
+      <c r="K24" s="6">
+        <v>0</v>
       </c>
       <c r="L24" s="4">
-        <v>6250</v>
+        <v>11300</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" s="4">
-        <v>500</v>
+        <v>56</v>
+      </c>
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7">
+        <v>0</v>
+      </c>
+      <c r="J25" s="6">
+        <v>0</v>
+      </c>
+      <c r="K25" s="6">
+        <v>0</v>
+      </c>
+      <c r="L25" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
-        <v>24</v>
+        <v>18</v>
+      </c>
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>5400</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>8100</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="6">
+        <v>0</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0</v>
       </c>
       <c r="L26" s="4">
-        <v>250</v>
+        <v>13500</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="B27">
+        <v>250</v>
+      </c>
+      <c r="C27">
+        <v>5650</v>
+      </c>
+      <c r="D27">
+        <v>5400</v>
+      </c>
+      <c r="E27">
+        <v>250</v>
+      </c>
+      <c r="F27">
+        <v>260</v>
+      </c>
+      <c r="G27">
+        <v>250</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7">
+        <v>0</v>
+      </c>
+      <c r="J27" s="6">
+        <v>0</v>
+      </c>
+      <c r="K27" s="6">
+        <v>0</v>
       </c>
       <c r="L27" s="4">
-        <v>32176.420000000002</v>
+        <v>12060</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L28" s="4">
-        <v>3420.16</v>
+        <v>57</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" s="7">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+      <c r="L28" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>300</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0</v>
       </c>
       <c r="L29" s="4">
-        <v>7143</v>
+        <v>300</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>250</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7">
+        <v>0</v>
+      </c>
+      <c r="J30" s="6">
+        <v>0</v>
+      </c>
+      <c r="K30" s="6">
+        <v>0</v>
       </c>
       <c r="L30" s="4">
-        <v>270.15999999999997</v>
+        <v>250</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>1000</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>250</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" s="7">
+        <v>0</v>
+      </c>
+      <c r="J31" s="6">
+        <v>0</v>
+      </c>
+      <c r="K31" s="6">
+        <v>0</v>
       </c>
       <c r="L31" s="4">
-        <v>7595.16</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>250</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>100</v>
+      </c>
+      <c r="G32">
+        <v>3200</v>
+      </c>
+      <c r="H32">
+        <v>2700</v>
+      </c>
+      <c r="I32" s="7">
+        <v>0</v>
+      </c>
+      <c r="J32" s="6">
+        <v>0</v>
+      </c>
+      <c r="K32" s="6">
+        <v>0</v>
       </c>
       <c r="L32" s="4">
-        <v>2061.2600000000002</v>
+        <v>6250</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
-        <v>31</v>
+        <v>23</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>500</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33" s="7">
+        <v>0</v>
+      </c>
+      <c r="J33" s="6">
+        <v>0</v>
+      </c>
+      <c r="K33" s="6">
+        <v>0</v>
       </c>
       <c r="L33" s="4">
         <v>500</v>
@@ -1369,51 +2319,737 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>5650</v>
+      </c>
+      <c r="D34">
+        <v>5400</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>770.16</v>
+      </c>
+      <c r="G34">
+        <v>45.16</v>
+      </c>
+      <c r="H34">
+        <v>20311.099999999999</v>
+      </c>
+      <c r="I34" s="7">
+        <v>0</v>
+      </c>
+      <c r="J34" s="6">
+        <v>0</v>
+      </c>
+      <c r="K34" s="6">
+        <v>0</v>
       </c>
       <c r="L34" s="4">
-        <v>1050</v>
+        <v>32176.42</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>19</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>1800</v>
+      </c>
+      <c r="D35">
+        <v>350</v>
+      </c>
+      <c r="E35">
+        <v>100</v>
+      </c>
+      <c r="F35">
+        <v>5510</v>
+      </c>
+      <c r="G35">
+        <v>10800</v>
+      </c>
+      <c r="H35">
+        <v>-2675</v>
+      </c>
+      <c r="I35" s="7">
+        <v>0</v>
+      </c>
+      <c r="J35" s="6">
+        <v>0</v>
+      </c>
+      <c r="K35" s="6">
+        <v>0</v>
       </c>
       <c r="L35" s="4">
-        <v>45160</v>
+        <v>15885</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L36" s="4">
-        <v>250</v>
+        <v>58</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36">
+        <v>0</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0</v>
+      </c>
+      <c r="I36" s="7">
+        <v>0</v>
+      </c>
+      <c r="J36" s="6">
+        <v>0</v>
+      </c>
+      <c r="K36" s="6">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
-        <v>35</v>
+        <v>26</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+      <c r="C37">
+        <v>250</v>
+      </c>
+      <c r="D37">
+        <v>2500</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>250</v>
+      </c>
+      <c r="G37">
+        <v>370.16</v>
+      </c>
+      <c r="H37">
+        <v>50</v>
+      </c>
+      <c r="I37" s="7">
+        <v>0</v>
+      </c>
+      <c r="J37" s="6">
+        <v>0</v>
+      </c>
+      <c r="K37" s="6">
+        <v>0</v>
       </c>
       <c r="L37" s="4">
-        <v>19716</v>
+        <v>3420.16</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
-        <v>36</v>
+        <v>27</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>500</v>
+      </c>
+      <c r="D38">
+        <v>500</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>100</v>
+      </c>
+      <c r="G38">
+        <v>5938</v>
+      </c>
+      <c r="H38">
+        <v>105</v>
+      </c>
+      <c r="I38" s="7">
+        <v>0</v>
+      </c>
+      <c r="J38" s="6">
+        <v>0</v>
+      </c>
+      <c r="K38" s="6">
+        <v>0</v>
       </c>
       <c r="L38" s="4">
-        <v>6231.26</v>
+        <v>7143</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>100</v>
+      </c>
+      <c r="E39">
+        <v>125</v>
+      </c>
+      <c r="F39">
+        <v>45.16</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39" s="7">
+        <v>0</v>
+      </c>
+      <c r="J39" s="6">
+        <v>0</v>
+      </c>
+      <c r="K39" s="6">
+        <v>0</v>
+      </c>
+      <c r="L39" s="4">
+        <v>270.16000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B40">
+        <v>2700</v>
+      </c>
+      <c r="C40">
+        <v>1500</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>420.16</v>
+      </c>
+      <c r="G40">
+        <v>150</v>
+      </c>
+      <c r="H40">
+        <v>2825</v>
+      </c>
+      <c r="I40" s="7">
+        <v>0</v>
+      </c>
+      <c r="J40" s="6">
+        <v>0</v>
+      </c>
+      <c r="K40" s="6">
+        <v>0</v>
+      </c>
+      <c r="L40" s="4">
+        <v>7595.16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41" s="7">
+        <v>0</v>
+      </c>
+      <c r="J41" s="6">
+        <v>0</v>
+      </c>
+      <c r="K41" s="6">
+        <v>0</v>
+      </c>
+      <c r="L41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1000</v>
+      </c>
+      <c r="D42">
+        <v>750</v>
+      </c>
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>230.16</v>
+      </c>
+      <c r="G42">
+        <v>35</v>
+      </c>
+      <c r="H42">
+        <v>46.1</v>
+      </c>
+      <c r="I42" s="7">
+        <v>0</v>
+      </c>
+      <c r="J42" s="6">
+        <v>0</v>
+      </c>
+      <c r="K42" s="6">
+        <v>0</v>
+      </c>
+      <c r="L42" s="4">
+        <v>2061.2600000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>500</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43" s="7">
+        <v>0</v>
+      </c>
+      <c r="J43" s="6">
+        <v>0</v>
+      </c>
+      <c r="K43" s="6">
+        <v>0</v>
+      </c>
+      <c r="L43" s="4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>750</v>
+      </c>
+      <c r="D44">
+        <v>100</v>
+      </c>
+      <c r="E44">
+        <v>100</v>
+      </c>
+      <c r="F44">
+        <v>100</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44" s="7">
+        <v>0</v>
+      </c>
+      <c r="J44" s="6">
+        <v>0</v>
+      </c>
+      <c r="K44" s="6">
+        <v>0</v>
+      </c>
+      <c r="L44" s="4">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45">
+        <v>500</v>
+      </c>
+      <c r="C45">
+        <v>21250</v>
+      </c>
+      <c r="D45">
+        <v>1950</v>
+      </c>
+      <c r="E45">
+        <v>7450</v>
+      </c>
+      <c r="F45">
+        <v>4282</v>
+      </c>
+      <c r="G45">
+        <v>8528</v>
+      </c>
+      <c r="H45">
+        <v>1200</v>
+      </c>
+      <c r="I45" s="7">
+        <v>0</v>
+      </c>
+      <c r="J45" s="6">
+        <v>0</v>
+      </c>
+      <c r="K45" s="6">
+        <v>0</v>
+      </c>
+      <c r="L45" s="4">
+        <v>45160</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46">
+        <v>0</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>250</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46" s="7">
+        <v>0</v>
+      </c>
+      <c r="J46" s="6">
+        <v>0</v>
+      </c>
+      <c r="K46" s="6">
+        <v>0</v>
+      </c>
+      <c r="L46" s="4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>0</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47" s="7">
+        <v>0</v>
+      </c>
+      <c r="J47" s="6">
+        <v>0</v>
+      </c>
+      <c r="K47" s="6">
+        <v>0</v>
+      </c>
+      <c r="L47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48">
+        <v>250</v>
+      </c>
+      <c r="C48">
+        <v>9866</v>
+      </c>
+      <c r="D48">
+        <v>1100</v>
+      </c>
+      <c r="E48">
+        <v>1200</v>
+      </c>
+      <c r="F48">
+        <v>200</v>
+      </c>
+      <c r="G48">
+        <v>7100</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48" s="7">
+        <v>0</v>
+      </c>
+      <c r="J48" s="6">
+        <v>0</v>
+      </c>
+      <c r="K48" s="6">
+        <v>0</v>
+      </c>
+      <c r="L48" s="4">
+        <v>19716</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>250</v>
+      </c>
+      <c r="D49">
+        <v>3300</v>
+      </c>
+      <c r="E49">
+        <v>1250</v>
+      </c>
+      <c r="F49">
+        <v>50</v>
+      </c>
+      <c r="G49">
+        <v>370.16</v>
+      </c>
+      <c r="H49">
+        <v>1011.1</v>
+      </c>
+      <c r="I49" s="7">
+        <v>0</v>
+      </c>
+      <c r="J49" s="6">
+        <v>0</v>
+      </c>
+      <c r="K49" s="6">
+        <v>0</v>
+      </c>
+      <c r="L49" s="4">
+        <v>6231.26</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
+      </c>
+      <c r="I50" s="7">
+        <v>0</v>
+      </c>
+      <c r="J50" s="6">
+        <v>0</v>
+      </c>
+      <c r="K50" s="6">
+        <v>0</v>
+      </c>
+      <c r="L50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="L39" s="4">
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>5400</v>
+      </c>
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>11800</v>
+      </c>
+      <c r="H51">
+        <v>14800</v>
+      </c>
+      <c r="I51" s="7">
+        <v>0</v>
+      </c>
+      <c r="J51" s="6">
+        <v>0</v>
+      </c>
+      <c r="K51" s="6">
+        <v>0</v>
+      </c>
+      <c r="L51" s="4">
         <v>32000</v>
       </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52" s="7">
+        <v>0</v>
+      </c>
+      <c r="J52" s="6">
+        <v>0</v>
+      </c>
+      <c r="K52" s="6">
+        <v>0</v>
+      </c>
+      <c r="L52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/GoodCSVs/BobbyJindal.xlsx
+++ b/data/GoodCSVs/BobbyJindal.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>AL</t>
   </si>
@@ -210,6 +210,9 @@
   </si>
   <si>
     <t>WY</t>
+  </si>
+  <si>
+    <t>March_16</t>
   </si>
 </sst>
 </file>
@@ -1054,16 +1057,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L54"/>
+  <dimension ref="A1:M54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N11" sqref="N11"/>
+      <selection pane="topRight" activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="9.140625" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
@@ -1097,11 +1103,14 @@
       <c r="K1" t="s">
         <v>48</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -1135,11 +1144,14 @@
       <c r="K2" s="6">
         <v>0</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="6">
+        <v>0</v>
+      </c>
+      <c r="M2" s="4">
         <v>2759</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>50</v>
       </c>
@@ -1173,11 +1185,14 @@
       <c r="K3" s="6">
         <v>0</v>
       </c>
-      <c r="L3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="6">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1211,11 +1226,14 @@
       <c r="K4" s="6">
         <v>0</v>
       </c>
-      <c r="L4" s="4">
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
         <v>8925</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
@@ -1249,11 +1267,14 @@
       <c r="K5" s="6">
         <v>0</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="6">
+        <v>0</v>
+      </c>
+      <c r="M5" s="4">
         <v>3950</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1287,11 +1308,14 @@
       <c r="K6" s="6">
         <v>0</v>
       </c>
-      <c r="L6" s="4">
+      <c r="L6" s="6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="4">
         <v>23231.26</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
@@ -1325,11 +1349,14 @@
       <c r="K7" s="6">
         <v>0</v>
       </c>
-      <c r="L7" s="4">
+      <c r="L7" s="6">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
@@ -1363,11 +1390,14 @@
       <c r="K8" s="6">
         <v>0</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="6">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1401,11 +1431,14 @@
       <c r="K9" s="6">
         <v>0</v>
       </c>
-      <c r="L9" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
@@ -1439,11 +1472,14 @@
       <c r="K10" s="6">
         <v>0</v>
       </c>
-      <c r="L10" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L10" s="6">
+        <v>0</v>
+      </c>
+      <c r="M10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
@@ -1477,11 +1513,14 @@
       <c r="K11" s="6">
         <v>0</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="6">
+        <v>0</v>
+      </c>
+      <c r="M11" s="4">
         <v>32050</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
@@ -1515,11 +1554,14 @@
       <c r="K12" s="6">
         <v>0</v>
       </c>
-      <c r="L12" s="4">
+      <c r="L12" s="6">
+        <v>0</v>
+      </c>
+      <c r="M12" s="4">
         <v>3600</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
@@ -1553,11 +1595,14 @@
       <c r="K13" s="6">
         <v>0</v>
       </c>
-      <c r="L13" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L13" s="6">
+        <v>0</v>
+      </c>
+      <c r="M13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
@@ -1591,11 +1636,14 @@
       <c r="K14" s="6">
         <v>0</v>
       </c>
-      <c r="L14" s="4">
+      <c r="L14" s="6">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
         <v>1050</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
@@ -1629,11 +1677,14 @@
       <c r="K15" s="6">
         <v>0</v>
       </c>
-      <c r="L15" s="4">
+      <c r="L15" s="6">
+        <v>0</v>
+      </c>
+      <c r="M15" s="4">
         <v>5500</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
@@ -1667,11 +1718,14 @@
       <c r="K16" s="6">
         <v>0</v>
       </c>
-      <c r="L16" s="4">
+      <c r="L16" s="6">
+        <v>0</v>
+      </c>
+      <c r="M16" s="4">
         <v>3450</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
@@ -1705,11 +1759,14 @@
       <c r="K17" s="6">
         <v>0</v>
       </c>
-      <c r="L17" s="4">
+      <c r="L17" s="6">
+        <v>0</v>
+      </c>
+      <c r="M17" s="4">
         <v>6420.16</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
@@ -1743,11 +1800,14 @@
       <c r="K18" s="6">
         <v>0</v>
       </c>
-      <c r="L18" s="4">
+      <c r="L18" s="6">
+        <v>0</v>
+      </c>
+      <c r="M18" s="4">
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
@@ -1781,11 +1841,14 @@
       <c r="K19" s="6">
         <v>0</v>
       </c>
-      <c r="L19" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L19" s="6">
+        <v>0</v>
+      </c>
+      <c r="M19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>13</v>
       </c>
@@ -1819,11 +1882,14 @@
       <c r="K20" s="6">
         <v>0</v>
       </c>
-      <c r="L20" s="4">
+      <c r="L20" s="6">
+        <v>0</v>
+      </c>
+      <c r="M20" s="4">
         <v>934939.32</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>55</v>
       </c>
@@ -1857,11 +1923,14 @@
       <c r="K21" s="6">
         <v>0</v>
       </c>
-      <c r="L21" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L21" s="6">
+        <v>0</v>
+      </c>
+      <c r="M21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
@@ -1895,11 +1964,14 @@
       <c r="K22" s="6">
         <v>0</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
         <v>9650</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
@@ -1933,11 +2005,14 @@
       <c r="K23" s="6">
         <v>0</v>
       </c>
-      <c r="L23" s="4">
+      <c r="L23" s="6">
+        <v>0</v>
+      </c>
+      <c r="M23" s="4">
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
@@ -1971,11 +2046,14 @@
       <c r="K24" s="6">
         <v>0</v>
       </c>
-      <c r="L24" s="4">
+      <c r="L24" s="6">
+        <v>0</v>
+      </c>
+      <c r="M24" s="4">
         <v>11300</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
@@ -2009,11 +2087,14 @@
       <c r="K25" s="6">
         <v>0</v>
       </c>
-      <c r="L25" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L25" s="6">
+        <v>0</v>
+      </c>
+      <c r="M25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
@@ -2047,11 +2128,14 @@
       <c r="K26" s="6">
         <v>0</v>
       </c>
-      <c r="L26" s="4">
+      <c r="L26" s="6">
+        <v>0</v>
+      </c>
+      <c r="M26" s="4">
         <v>13500</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
@@ -2085,11 +2169,14 @@
       <c r="K27" s="6">
         <v>0</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L27" s="6">
+        <v>0</v>
+      </c>
+      <c r="M27" s="4">
         <v>12060</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
@@ -2123,11 +2210,14 @@
       <c r="K28" s="6">
         <v>0</v>
       </c>
-      <c r="L28" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L28" s="6">
+        <v>0</v>
+      </c>
+      <c r="M28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>20</v>
       </c>
@@ -2161,11 +2251,14 @@
       <c r="K29" s="6">
         <v>0</v>
       </c>
-      <c r="L29" s="4">
+      <c r="L29" s="6">
+        <v>0</v>
+      </c>
+      <c r="M29" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
@@ -2199,11 +2292,14 @@
       <c r="K30" s="6">
         <v>0</v>
       </c>
-      <c r="L30" s="4">
+      <c r="L30" s="6">
+        <v>0</v>
+      </c>
+      <c r="M30" s="4">
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
@@ -2237,11 +2333,14 @@
       <c r="K31" s="6">
         <v>0</v>
       </c>
-      <c r="L31" s="4">
+      <c r="L31" s="6">
+        <v>0</v>
+      </c>
+      <c r="M31" s="4">
         <v>1250</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
@@ -2275,11 +2374,14 @@
       <c r="K32" s="6">
         <v>0</v>
       </c>
-      <c r="L32" s="4">
+      <c r="L32" s="6">
+        <v>0</v>
+      </c>
+      <c r="M32" s="4">
         <v>6250</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>23</v>
       </c>
@@ -2313,11 +2415,14 @@
       <c r="K33" s="6">
         <v>0</v>
       </c>
-      <c r="L33" s="4">
+      <c r="L33" s="6">
+        <v>0</v>
+      </c>
+      <c r="M33" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>25</v>
       </c>
@@ -2351,11 +2456,14 @@
       <c r="K34" s="6">
         <v>0</v>
       </c>
-      <c r="L34" s="4">
+      <c r="L34" s="6">
+        <v>0</v>
+      </c>
+      <c r="M34" s="4">
         <v>32176.42</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
@@ -2389,11 +2497,14 @@
       <c r="K35" s="6">
         <v>0</v>
       </c>
-      <c r="L35" s="4">
+      <c r="L35" s="6">
+        <v>0</v>
+      </c>
+      <c r="M35" s="4">
         <v>15885</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>58</v>
       </c>
@@ -2427,11 +2538,14 @@
       <c r="K36" s="6">
         <v>0</v>
       </c>
-      <c r="L36" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L36" s="6">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
@@ -2465,11 +2579,14 @@
       <c r="K37" s="6">
         <v>0</v>
       </c>
-      <c r="L37" s="4">
+      <c r="L37" s="6">
+        <v>0</v>
+      </c>
+      <c r="M37" s="4">
         <v>3420.16</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>27</v>
       </c>
@@ -2503,11 +2620,14 @@
       <c r="K38" s="6">
         <v>0</v>
       </c>
-      <c r="L38" s="4">
+      <c r="L38" s="6">
+        <v>0</v>
+      </c>
+      <c r="M38" s="4">
         <v>7143</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
@@ -2541,11 +2661,14 @@
       <c r="K39" s="6">
         <v>0</v>
       </c>
-      <c r="L39" s="4">
+      <c r="L39" s="6">
+        <v>0</v>
+      </c>
+      <c r="M39" s="4">
         <v>270.16000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
@@ -2579,11 +2702,14 @@
       <c r="K40" s="6">
         <v>0</v>
       </c>
-      <c r="L40" s="4">
+      <c r="L40" s="6">
+        <v>0</v>
+      </c>
+      <c r="M40" s="4">
         <v>7595.16</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>59</v>
       </c>
@@ -2617,11 +2743,14 @@
       <c r="K41" s="6">
         <v>0</v>
       </c>
-      <c r="L41" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L41" s="6">
+        <v>0</v>
+      </c>
+      <c r="M41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>30</v>
       </c>
@@ -2655,11 +2784,14 @@
       <c r="K42" s="6">
         <v>0</v>
       </c>
-      <c r="L42" s="4">
+      <c r="L42" s="6">
+        <v>0</v>
+      </c>
+      <c r="M42" s="4">
         <v>2061.2600000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>31</v>
       </c>
@@ -2693,11 +2825,14 @@
       <c r="K43" s="6">
         <v>0</v>
       </c>
-      <c r="L43" s="4">
+      <c r="L43" s="6">
+        <v>0</v>
+      </c>
+      <c r="M43" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>32</v>
       </c>
@@ -2731,11 +2866,14 @@
       <c r="K44" s="6">
         <v>0</v>
       </c>
-      <c r="L44" s="4">
+      <c r="L44" s="6">
+        <v>0</v>
+      </c>
+      <c r="M44" s="4">
         <v>1050</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>33</v>
       </c>
@@ -2769,11 +2907,14 @@
       <c r="K45" s="6">
         <v>0</v>
       </c>
-      <c r="L45" s="4">
+      <c r="L45" s="6">
+        <v>0</v>
+      </c>
+      <c r="M45" s="4">
         <v>45160</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>34</v>
       </c>
@@ -2807,11 +2948,14 @@
       <c r="K46" s="6">
         <v>0</v>
       </c>
-      <c r="L46" s="4">
+      <c r="L46" s="6">
+        <v>0</v>
+      </c>
+      <c r="M46" s="4">
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>60</v>
       </c>
@@ -2848,8 +2992,11 @@
       <c r="L47" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>35</v>
       </c>
@@ -2883,11 +3030,14 @@
       <c r="K48" s="6">
         <v>0</v>
       </c>
-      <c r="L48" s="4">
+      <c r="L48" s="6">
+        <v>0</v>
+      </c>
+      <c r="M48" s="4">
         <v>19716</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>36</v>
       </c>
@@ -2921,11 +3071,14 @@
       <c r="K49" s="6">
         <v>0</v>
       </c>
-      <c r="L49" s="4">
+      <c r="L49" s="6">
+        <v>0</v>
+      </c>
+      <c r="M49" s="4">
         <v>6231.26</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>61</v>
       </c>
@@ -2962,8 +3115,11 @@
       <c r="L50" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>37</v>
       </c>
@@ -2997,11 +3153,14 @@
       <c r="K51" s="6">
         <v>0</v>
       </c>
-      <c r="L51" s="4">
+      <c r="L51" s="6">
+        <v>0</v>
+      </c>
+      <c r="M51" s="4">
         <v>32000</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>62</v>
       </c>
@@ -3038,8 +3197,11 @@
       <c r="L52" s="6">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C54" s="4"/>
       <c r="D54" s="4"/>
       <c r="E54" s="4"/>
@@ -3049,7 +3211,7 @@
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
+      <c r="M54" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/GoodCSVs/BobbyJindal.xlsx
+++ b/data/GoodCSVs/BobbyJindal.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\campaign-contributions\data\GoodCSVs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="14625"/>
   </bookViews>
@@ -16,12 +11,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>AL</t>
   </si>
@@ -213,6 +208,18 @@
   </si>
   <si>
     <t>March_16</t>
+  </si>
+  <si>
+    <t>January_15</t>
+  </si>
+  <si>
+    <t>February_15</t>
+  </si>
+  <si>
+    <t>March_15</t>
+  </si>
+  <si>
+    <t>April_15</t>
   </si>
 </sst>
 </file>
@@ -813,7 +820,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -848,7 +855,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1057,108 +1064,133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M54"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="O46" sqref="O46"/>
+      <selection pane="topRight" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="9.140625" style="4"/>
+    <col min="2" max="5" width="9.140625" style="4"/>
+    <col min="16" max="16" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>40</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>41</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>42</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>43</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>44</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>45</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>46</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>47</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="6">
         <v>0</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="6">
         <v>0</v>
       </c>
       <c r="D2" s="6">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6">
+        <v>0</v>
+      </c>
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="6">
         <v>2500</v>
       </c>
-      <c r="E2" s="6">
-        <v>0</v>
-      </c>
-      <c r="F2" s="6">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6">
-        <v>0</v>
-      </c>
-      <c r="H2" s="6">
+      <c r="I2" s="6">
+        <v>0</v>
+      </c>
+      <c r="J2" s="6">
+        <v>0</v>
+      </c>
+      <c r="K2" s="6">
+        <v>0</v>
+      </c>
+      <c r="L2" s="6">
         <v>259</v>
       </c>
-      <c r="I2" s="6">
-        <v>0</v>
-      </c>
-      <c r="J2" s="6">
-        <v>0</v>
-      </c>
-      <c r="K2" s="6">
-        <v>0</v>
-      </c>
-      <c r="L2" s="6">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4">
+      <c r="M2" s="6">
+        <v>0</v>
+      </c>
+      <c r="N2" s="6">
+        <v>0</v>
+      </c>
+      <c r="O2" s="6">
+        <v>0</v>
+      </c>
+      <c r="P2" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="4">
         <v>2759</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>50</v>
       </c>
       <c r="B3" s="6">
         <v>0</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>0</v>
       </c>
       <c r="D3" s="6">
@@ -1170,7 +1202,7 @@
       <c r="F3" s="6">
         <v>0</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>0</v>
       </c>
       <c r="H3" s="6">
@@ -1188,11 +1220,23 @@
       <c r="L3" s="6">
         <v>0</v>
       </c>
-      <c r="M3" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+      <c r="N3" s="6">
+        <v>0</v>
+      </c>
+      <c r="O3" s="6">
+        <v>0</v>
+      </c>
+      <c r="P3" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -1200,149 +1244,185 @@
         <v>0</v>
       </c>
       <c r="C4" s="6">
+        <v>0</v>
+      </c>
+      <c r="D4" s="6">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6">
         <v>5900</v>
       </c>
-      <c r="D4" s="6">
+      <c r="H4" s="6">
         <v>2950</v>
       </c>
-      <c r="E4" s="6">
-        <v>0</v>
-      </c>
-      <c r="F4" s="6">
-        <v>0</v>
-      </c>
-      <c r="G4" s="6">
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6">
+        <v>0</v>
+      </c>
+      <c r="K4" s="6">
         <v>40</v>
       </c>
-      <c r="H4" s="6">
+      <c r="L4" s="6">
         <v>25</v>
       </c>
-      <c r="I4" s="7">
+      <c r="M4" s="7">
         <v>10</v>
       </c>
-      <c r="J4" s="6">
-        <v>0</v>
-      </c>
-      <c r="K4" s="6">
-        <v>0</v>
-      </c>
-      <c r="L4" s="6">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
+      <c r="N4" s="6">
+        <v>0</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+      <c r="P4" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
         <v>8925</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="6">
         <v>0</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
+        <v>0</v>
+      </c>
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
         <v>2700</v>
       </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>0</v>
-      </c>
-      <c r="G5" s="7">
+      <c r="H5" s="6">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="6">
+        <v>0</v>
+      </c>
+      <c r="K5" s="7">
         <v>1250</v>
       </c>
-      <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <v>0</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4">
+      <c r="L5" s="7">
+        <v>0</v>
+      </c>
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="6">
+        <v>0</v>
+      </c>
+      <c r="O5" s="6">
+        <v>0</v>
+      </c>
+      <c r="P5" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
         <v>3950</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="6">
+        <v>0</v>
+      </c>
+      <c r="C6" s="6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="6">
+        <v>0</v>
+      </c>
+      <c r="E6" s="6">
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
         <v>500</v>
       </c>
-      <c r="C6" s="6">
+      <c r="G6" s="6">
         <v>5000</v>
       </c>
-      <c r="D6" s="6">
+      <c r="H6" s="6">
         <v>4200</v>
       </c>
-      <c r="E6" s="6">
+      <c r="I6" s="6">
         <v>1250</v>
       </c>
-      <c r="F6" s="6">
+      <c r="J6" s="6">
         <v>6150</v>
       </c>
-      <c r="G6" s="6">
+      <c r="K6" s="6">
         <v>370.16</v>
       </c>
-      <c r="H6" s="6">
+      <c r="L6" s="6">
         <v>5761.1</v>
       </c>
-      <c r="I6" s="7">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
-        <v>0</v>
-      </c>
-      <c r="K6" s="6">
-        <v>0</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="4">
+      <c r="M6" s="7">
+        <v>0</v>
+      </c>
+      <c r="N6" s="6">
+        <v>0</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0</v>
+      </c>
+      <c r="P6" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
         <v>23231.26</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="7">
+      <c r="B7" s="6">
         <v>0</v>
       </c>
       <c r="C7" s="6">
+        <v>0</v>
+      </c>
+      <c r="D7" s="6">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>0</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="6">
         <v>5650</v>
       </c>
-      <c r="D7" s="6">
+      <c r="H7" s="6">
         <v>350</v>
       </c>
-      <c r="E7">
+      <c r="I7">
         <v>1000</v>
       </c>
-      <c r="F7" s="6">
-        <v>0</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7">
-        <v>0</v>
-      </c>
       <c r="J7" s="6">
         <v>0</v>
       </c>
@@ -1352,36 +1432,48 @@
       <c r="L7" s="6">
         <v>0</v>
       </c>
-      <c r="M7" s="4">
+      <c r="M7" s="7">
+        <v>0</v>
+      </c>
+      <c r="N7" s="6">
+        <v>0</v>
+      </c>
+      <c r="O7" s="6">
+        <v>0</v>
+      </c>
+      <c r="P7" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="4">
         <v>7000</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="7">
+      <c r="B8" s="6">
         <v>0</v>
       </c>
       <c r="C8" s="6">
+        <v>0</v>
+      </c>
+      <c r="D8" s="6">
+        <v>0</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="6">
         <v>2700</v>
       </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>0</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
       <c r="H8" s="6">
         <v>0</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="6">
         <v>0</v>
       </c>
       <c r="J8" s="6">
@@ -1393,15 +1485,27 @@
       <c r="L8" s="6">
         <v>0</v>
       </c>
-      <c r="M8" s="4">
+      <c r="M8" s="7">
+        <v>0</v>
+      </c>
+      <c r="N8" s="6">
+        <v>0</v>
+      </c>
+      <c r="O8" s="6">
+        <v>0</v>
+      </c>
+      <c r="P8" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
         <v>2700</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B9" s="6">
         <v>0</v>
       </c>
       <c r="C9" s="6">
@@ -1413,7 +1517,7 @@
       <c r="E9" s="6">
         <v>0</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>0</v>
       </c>
       <c r="G9" s="6">
@@ -1422,7 +1526,7 @@
       <c r="H9" s="6">
         <v>0</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="6">
         <v>0</v>
       </c>
       <c r="J9" s="6">
@@ -1437,15 +1541,27 @@
       <c r="M9" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+      <c r="P9" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="7">
-        <v>0</v>
-      </c>
-      <c r="C10" s="4">
+      <c r="B10" s="6">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6">
         <v>0</v>
       </c>
       <c r="D10" s="6">
@@ -1454,16 +1570,16 @@
       <c r="E10" s="6">
         <v>0</v>
       </c>
-      <c r="F10" s="6">
-        <v>0</v>
-      </c>
-      <c r="G10" s="6">
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
         <v>0</v>
       </c>
       <c r="H10" s="6">
         <v>0</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="6">
         <v>0</v>
       </c>
       <c r="J10" s="6">
@@ -1478,115 +1594,151 @@
       <c r="M10" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+      <c r="P10" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="7">
-        <v>0</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="6">
+        <v>0</v>
+      </c>
+      <c r="C11" s="6">
+        <v>0</v>
+      </c>
+      <c r="D11" s="6">
+        <v>0</v>
+      </c>
+      <c r="E11" s="6">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11">
         <v>11950</v>
       </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11">
+      <c r="H11" s="6">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11">
         <v>6100</v>
       </c>
-      <c r="G11">
+      <c r="K11">
         <v>2700</v>
       </c>
-      <c r="H11">
+      <c r="L11">
         <v>11300</v>
       </c>
-      <c r="I11" s="7">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
-        <v>0</v>
-      </c>
-      <c r="K11" s="6">
-        <v>0</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="4">
+      <c r="M11" s="7">
+        <v>0</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+      <c r="P11" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
         <v>32050</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B12" s="7">
-        <v>0</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="6">
+        <v>0</v>
+      </c>
+      <c r="C12" s="6">
+        <v>0</v>
+      </c>
+      <c r="D12" s="6">
+        <v>0</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12">
         <v>1750</v>
       </c>
-      <c r="D12">
+      <c r="H12">
         <v>500</v>
       </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12">
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>300</v>
       </c>
-      <c r="G12">
+      <c r="K12">
         <v>800</v>
       </c>
-      <c r="H12">
+      <c r="L12">
         <v>250</v>
       </c>
-      <c r="I12" s="7">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
-        <v>0</v>
-      </c>
-      <c r="K12" s="6">
-        <v>0</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
-      <c r="M12" s="4">
+      <c r="M12" s="7">
+        <v>0</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+      <c r="P12" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="4">
         <v>3600</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="7">
-        <v>0</v>
-      </c>
-      <c r="C13" s="4">
-        <v>0</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="B13" s="6">
+        <v>0</v>
+      </c>
+      <c r="C13" s="6">
+        <v>0</v>
+      </c>
+      <c r="D13" s="6">
         <v>0</v>
       </c>
       <c r="E13" s="6">
         <v>0</v>
       </c>
-      <c r="F13" s="6">
-        <v>0</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7">
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6">
         <v>0</v>
       </c>
       <c r="J13" s="6">
@@ -1601,229 +1753,301 @@
       <c r="M13" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+      <c r="P13" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="7">
-        <v>0</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="6">
+        <v>0</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0</v>
+      </c>
+      <c r="D14" s="6">
+        <v>0</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14">
         <v>250</v>
       </c>
-      <c r="D14">
+      <c r="H14">
         <v>300</v>
       </c>
-      <c r="E14">
+      <c r="I14">
         <v>250</v>
       </c>
-      <c r="F14">
+      <c r="J14">
         <v>150</v>
       </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="K14" s="6">
+        <v>0</v>
+      </c>
+      <c r="L14">
         <v>100</v>
       </c>
-      <c r="I14" s="7">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
-        <v>0</v>
-      </c>
-      <c r="K14" s="6">
-        <v>0</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-      <c r="M14" s="4">
+      <c r="M14" s="7">
+        <v>0</v>
+      </c>
+      <c r="N14" s="6">
+        <v>0</v>
+      </c>
+      <c r="O14" s="6">
+        <v>0</v>
+      </c>
+      <c r="P14" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="4">
         <v>1050</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B15" s="7">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
+      <c r="B15" s="6">
+        <v>0</v>
+      </c>
+      <c r="C15" s="6">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
         <v>0</v>
       </c>
       <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>100</v>
       </c>
-      <c r="H15">
+      <c r="L15">
         <v>5400</v>
       </c>
-      <c r="I15" s="7">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0</v>
-      </c>
-      <c r="K15" s="6">
-        <v>0</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0</v>
-      </c>
-      <c r="M15" s="4">
+      <c r="M15" s="7">
+        <v>0</v>
+      </c>
+      <c r="N15" s="6">
+        <v>0</v>
+      </c>
+      <c r="O15" s="6">
+        <v>0</v>
+      </c>
+      <c r="P15" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="4">
         <v>5500</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="7">
-        <v>0</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="6">
+        <v>0</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0</v>
+      </c>
+      <c r="D16" s="6">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>500</v>
       </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
         <v>250</v>
       </c>
-      <c r="G16">
+      <c r="K16">
         <v>2700</v>
       </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16" s="7">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0</v>
-      </c>
-      <c r="K16" s="6">
-        <v>0</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
-      <c r="M16" s="4">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="7">
+        <v>0</v>
+      </c>
+      <c r="N16" s="6">
+        <v>0</v>
+      </c>
+      <c r="O16" s="6">
+        <v>0</v>
+      </c>
+      <c r="P16" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="4">
         <v>3450</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="7">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
+      <c r="B17" s="6">
+        <v>0</v>
+      </c>
+      <c r="C17" s="6">
+        <v>0</v>
+      </c>
+      <c r="D17" s="6">
+        <v>0</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>250</v>
       </c>
-      <c r="E17">
+      <c r="I17">
         <v>500</v>
       </c>
-      <c r="F17" s="4">
+      <c r="J17" s="4">
         <v>3670.16</v>
       </c>
-      <c r="G17">
+      <c r="K17">
         <v>900</v>
       </c>
-      <c r="H17">
+      <c r="L17">
         <v>1100</v>
       </c>
-      <c r="I17" s="7">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0</v>
-      </c>
-      <c r="K17" s="6">
-        <v>0</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0</v>
-      </c>
-      <c r="M17" s="4">
+      <c r="M17" s="7">
+        <v>0</v>
+      </c>
+      <c r="N17" s="6">
+        <v>0</v>
+      </c>
+      <c r="O17" s="6">
+        <v>0</v>
+      </c>
+      <c r="P17" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="4">
         <v>6420.16</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="7">
-        <v>0</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="6">
+        <v>0</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0</v>
+      </c>
+      <c r="D18" s="6">
+        <v>0</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18">
         <v>250</v>
       </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
       <c r="H18">
         <v>0</v>
       </c>
-      <c r="I18" s="7">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
-        <v>0</v>
-      </c>
-      <c r="K18" s="6">
-        <v>0</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0</v>
-      </c>
-      <c r="M18" s="4">
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="7">
+        <v>0</v>
+      </c>
+      <c r="N18" s="6">
+        <v>0</v>
+      </c>
+      <c r="O18" s="6">
+        <v>0</v>
+      </c>
+      <c r="P18" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="4">
         <v>250</v>
       </c>
     </row>
-    <row r="19" spans="1:13" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B19" s="7">
-        <v>0</v>
-      </c>
-      <c r="C19" s="4">
-        <v>0</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0</v>
-      </c>
-      <c r="E19" s="4">
-        <v>0</v>
-      </c>
-      <c r="F19" s="4">
+      <c r="B19" s="6">
+        <v>0</v>
+      </c>
+      <c r="C19" s="6">
+        <v>0</v>
+      </c>
+      <c r="D19" s="6">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
         <v>0</v>
       </c>
       <c r="G19" s="4">
@@ -1832,80 +2056,104 @@
       <c r="H19" s="4">
         <v>0</v>
       </c>
-      <c r="I19" s="7">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0</v>
-      </c>
-      <c r="K19" s="6">
-        <v>0</v>
-      </c>
-      <c r="L19" s="6">
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="4">
+        <v>0</v>
+      </c>
+      <c r="L19" s="4">
         <v>0</v>
       </c>
       <c r="M19" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+      <c r="P19" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B20" s="6">
+        <v>0</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0</v>
+      </c>
+      <c r="D20" s="6">
+        <v>0</v>
+      </c>
+      <c r="E20" s="6">
+        <v>0</v>
+      </c>
+      <c r="F20" s="6">
         <v>35850</v>
       </c>
-      <c r="C20">
+      <c r="G20">
         <v>378600</v>
       </c>
-      <c r="D20">
+      <c r="H20">
         <v>73000</v>
       </c>
-      <c r="E20">
+      <c r="I20">
         <v>168699</v>
       </c>
-      <c r="F20">
+      <c r="J20">
         <v>164240.32000000001</v>
       </c>
-      <c r="G20">
+      <c r="K20">
         <v>69150</v>
       </c>
-      <c r="H20">
+      <c r="L20">
         <v>45400</v>
       </c>
-      <c r="I20" s="7">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0</v>
-      </c>
-      <c r="K20" s="6">
-        <v>0</v>
-      </c>
-      <c r="L20" s="6">
-        <v>0</v>
-      </c>
-      <c r="M20" s="4">
+      <c r="M20" s="7">
+        <v>0</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+      <c r="P20" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="4">
         <v>934939.32</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>55</v>
       </c>
       <c r="B21" s="6">
         <v>0</v>
       </c>
-      <c r="C21">
-        <v>0</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
+      <c r="C21" s="6">
+        <v>0</v>
+      </c>
+      <c r="D21" s="6">
+        <v>0</v>
+      </c>
+      <c r="E21" s="6">
+        <v>0</v>
+      </c>
+      <c r="F21" s="6">
         <v>0</v>
       </c>
       <c r="G21">
@@ -1914,162 +2162,210 @@
       <c r="H21">
         <v>0</v>
       </c>
-      <c r="I21" s="7">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
-        <v>0</v>
-      </c>
-      <c r="K21" s="6">
-        <v>0</v>
-      </c>
-      <c r="L21" s="6">
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>0</v>
       </c>
       <c r="M21" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+      <c r="P21" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B22" s="6">
         <v>0</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
+        <v>0</v>
+      </c>
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22">
         <v>3150</v>
       </c>
-      <c r="D22">
+      <c r="H22">
         <v>750</v>
       </c>
-      <c r="E22">
+      <c r="I22">
         <v>2700</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>350</v>
       </c>
-      <c r="H22">
+      <c r="L22">
         <v>2700</v>
       </c>
-      <c r="I22" s="7">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0</v>
-      </c>
-      <c r="K22" s="6">
-        <v>0</v>
-      </c>
-      <c r="L22" s="6">
-        <v>0</v>
-      </c>
-      <c r="M22" s="4">
+      <c r="M22" s="7">
+        <v>0</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
+        <v>0</v>
+      </c>
+      <c r="P22" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
         <v>9650</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B23" s="6">
         <v>0</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23">
         <v>250</v>
       </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="I23" s="7">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0</v>
-      </c>
-      <c r="K23" s="6">
-        <v>0</v>
-      </c>
-      <c r="L23" s="6">
-        <v>0</v>
-      </c>
-      <c r="M23" s="4">
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="7">
+        <v>0</v>
+      </c>
+      <c r="N23" s="6">
+        <v>0</v>
+      </c>
+      <c r="O23" s="6">
+        <v>0</v>
+      </c>
+      <c r="P23" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="4">
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>16</v>
       </c>
       <c r="B24" s="6">
         <v>0</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="6">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24">
         <v>250</v>
       </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
         <v>250</v>
       </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <v>10800</v>
       </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6">
-        <v>0</v>
-      </c>
-      <c r="K24" s="6">
-        <v>0</v>
-      </c>
-      <c r="L24" s="6">
-        <v>0</v>
-      </c>
-      <c r="M24" s="4">
+      <c r="M24" s="7">
+        <v>0</v>
+      </c>
+      <c r="N24" s="6">
+        <v>0</v>
+      </c>
+      <c r="O24" s="6">
+        <v>0</v>
+      </c>
+      <c r="P24" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="4">
         <v>11300</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="6">
         <v>0</v>
       </c>
-      <c r="C25">
-        <v>0</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
         <v>0</v>
       </c>
       <c r="G25">
@@ -2078,118 +2374,154 @@
       <c r="H25">
         <v>0</v>
       </c>
-      <c r="I25" s="7">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6">
-        <v>0</v>
-      </c>
-      <c r="K25" s="6">
-        <v>0</v>
-      </c>
-      <c r="L25" s="6">
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <v>0</v>
       </c>
       <c r="M25" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="6">
+        <v>0</v>
+      </c>
+      <c r="O25" s="6">
+        <v>0</v>
+      </c>
+      <c r="P25" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B26" s="6">
         <v>0</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
+        <v>0</v>
+      </c>
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26">
         <v>5400</v>
       </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
         <v>8100</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
-        <v>0</v>
-      </c>
-      <c r="J26" s="6">
-        <v>0</v>
-      </c>
-      <c r="K26" s="6">
-        <v>0</v>
-      </c>
-      <c r="L26" s="6">
-        <v>0</v>
-      </c>
-      <c r="M26" s="4">
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="7">
+        <v>0</v>
+      </c>
+      <c r="N26" s="6">
+        <v>0</v>
+      </c>
+      <c r="O26" s="6">
+        <v>0</v>
+      </c>
+      <c r="P26" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="4">
         <v>13500</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
+        <v>0</v>
+      </c>
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27">
         <v>250</v>
       </c>
-      <c r="C27">
+      <c r="G27">
         <v>5650</v>
       </c>
-      <c r="D27">
+      <c r="H27">
         <v>5400</v>
       </c>
-      <c r="E27">
+      <c r="I27">
         <v>250</v>
       </c>
-      <c r="F27">
+      <c r="J27">
         <v>260</v>
       </c>
-      <c r="G27">
+      <c r="K27">
         <v>250</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
-        <v>0</v>
-      </c>
-      <c r="J27" s="6">
-        <v>0</v>
-      </c>
-      <c r="K27" s="6">
-        <v>0</v>
-      </c>
-      <c r="L27" s="6">
-        <v>0</v>
-      </c>
-      <c r="M27" s="4">
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="7">
+        <v>0</v>
+      </c>
+      <c r="N27" s="6">
+        <v>0</v>
+      </c>
+      <c r="O27" s="6">
+        <v>0</v>
+      </c>
+      <c r="P27" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="4">
         <v>12060</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
         <v>0</v>
       </c>
       <c r="F28">
@@ -2201,323 +2533,419 @@
       <c r="H28">
         <v>0</v>
       </c>
-      <c r="I28" s="7">
-        <v>0</v>
-      </c>
-      <c r="J28" s="6">
-        <v>0</v>
-      </c>
-      <c r="K28" s="6">
-        <v>0</v>
-      </c>
-      <c r="L28" s="6">
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
         <v>0</v>
       </c>
       <c r="M28" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B29">
-        <v>0</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
+      <c r="B29" s="6">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
         <v>300</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7">
-        <v>0</v>
-      </c>
-      <c r="J29" s="6">
-        <v>0</v>
-      </c>
-      <c r="K29" s="6">
-        <v>0</v>
-      </c>
-      <c r="L29" s="6">
-        <v>0</v>
-      </c>
-      <c r="M29" s="4">
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="7">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="4">
         <v>300</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
         <v>250</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
-        <v>0</v>
-      </c>
-      <c r="J30" s="6">
-        <v>0</v>
-      </c>
-      <c r="K30" s="6">
-        <v>0</v>
-      </c>
-      <c r="L30" s="6">
-        <v>0</v>
-      </c>
-      <c r="M30" s="4">
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="7">
+        <v>0</v>
+      </c>
+      <c r="N30" s="6">
+        <v>0</v>
+      </c>
+      <c r="O30" s="6">
+        <v>0</v>
+      </c>
+      <c r="P30" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="4">
         <v>250</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="6">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
         <v>1000</v>
       </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
         <v>250</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
-        <v>0</v>
-      </c>
-      <c r="J31" s="6">
-        <v>0</v>
-      </c>
-      <c r="K31" s="6">
-        <v>0</v>
-      </c>
-      <c r="L31" s="6">
-        <v>0</v>
-      </c>
-      <c r="M31" s="4">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="7">
+        <v>0</v>
+      </c>
+      <c r="N31" s="6">
+        <v>0</v>
+      </c>
+      <c r="O31" s="6">
+        <v>0</v>
+      </c>
+      <c r="P31" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="4">
         <v>1250</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
+      <c r="B32" s="6">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
         <v>250</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
         <v>100</v>
       </c>
-      <c r="G32">
+      <c r="K32">
         <v>3200</v>
       </c>
-      <c r="H32">
+      <c r="L32">
         <v>2700</v>
       </c>
-      <c r="I32" s="7">
-        <v>0</v>
-      </c>
-      <c r="J32" s="6">
-        <v>0</v>
-      </c>
-      <c r="K32" s="6">
-        <v>0</v>
-      </c>
-      <c r="L32" s="6">
-        <v>0</v>
-      </c>
-      <c r="M32" s="4">
+      <c r="M32" s="7">
+        <v>0</v>
+      </c>
+      <c r="N32" s="6">
+        <v>0</v>
+      </c>
+      <c r="O32" s="6">
+        <v>0</v>
+      </c>
+      <c r="P32" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="4">
         <v>6250</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
+      <c r="B33" s="6">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>500</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
-        <v>0</v>
-      </c>
-      <c r="J33" s="6">
-        <v>0</v>
-      </c>
-      <c r="K33" s="6">
-        <v>0</v>
-      </c>
-      <c r="L33" s="6">
-        <v>0</v>
-      </c>
-      <c r="M33" s="4">
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="7">
+        <v>0</v>
+      </c>
+      <c r="N33" s="6">
+        <v>0</v>
+      </c>
+      <c r="O33" s="6">
+        <v>0</v>
+      </c>
+      <c r="P33" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
+      <c r="B34" s="6">
+        <v>0</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0</v>
+      </c>
+      <c r="D34" s="6">
+        <v>0</v>
+      </c>
+      <c r="E34" s="6">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
         <v>5650</v>
       </c>
-      <c r="D34">
+      <c r="H34">
         <v>5400</v>
       </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
         <v>770.16</v>
       </c>
-      <c r="G34">
+      <c r="K34">
         <v>45.16</v>
       </c>
-      <c r="H34">
+      <c r="L34">
         <v>20311.099999999999</v>
       </c>
-      <c r="I34" s="7">
-        <v>0</v>
-      </c>
-      <c r="J34" s="6">
-        <v>0</v>
-      </c>
-      <c r="K34" s="6">
-        <v>0</v>
-      </c>
-      <c r="L34" s="6">
-        <v>0</v>
-      </c>
-      <c r="M34" s="4">
+      <c r="M34" s="7">
+        <v>0</v>
+      </c>
+      <c r="N34" s="6">
+        <v>0</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0</v>
+      </c>
+      <c r="P34" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="4">
         <v>32176.42</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="6">
+        <v>0</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0</v>
+      </c>
+      <c r="D35" s="6">
+        <v>0</v>
+      </c>
+      <c r="E35" s="6">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
         <v>1800</v>
       </c>
-      <c r="D35">
+      <c r="H35">
         <v>350</v>
       </c>
-      <c r="E35">
+      <c r="I35">
         <v>100</v>
       </c>
-      <c r="F35">
+      <c r="J35">
         <v>5510</v>
       </c>
-      <c r="G35">
+      <c r="K35">
         <v>10800</v>
       </c>
-      <c r="H35">
+      <c r="L35">
         <v>-2675</v>
       </c>
-      <c r="I35" s="7">
-        <v>0</v>
-      </c>
-      <c r="J35" s="6">
-        <v>0</v>
-      </c>
-      <c r="K35" s="6">
-        <v>0</v>
-      </c>
-      <c r="L35" s="6">
-        <v>0</v>
-      </c>
-      <c r="M35" s="4">
+      <c r="M35" s="7">
+        <v>0</v>
+      </c>
+      <c r="N35" s="6">
+        <v>0</v>
+      </c>
+      <c r="O35" s="6">
+        <v>0</v>
+      </c>
+      <c r="P35" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="4">
         <v>15885</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
+      <c r="B36" s="6">
+        <v>0</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0</v>
+      </c>
+      <c r="D36" s="6">
+        <v>0</v>
+      </c>
+      <c r="E36" s="6">
         <v>0</v>
       </c>
       <c r="F36">
@@ -2529,200 +2957,260 @@
       <c r="H36">
         <v>0</v>
       </c>
-      <c r="I36" s="7">
-        <v>0</v>
-      </c>
-      <c r="J36" s="6">
-        <v>0</v>
-      </c>
-      <c r="K36" s="6">
-        <v>0</v>
-      </c>
-      <c r="L36" s="6">
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
         <v>0</v>
       </c>
       <c r="M36" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="6">
+        <v>0</v>
+      </c>
+      <c r="O36" s="6">
+        <v>0</v>
+      </c>
+      <c r="P36" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="6">
+        <v>0</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0</v>
+      </c>
+      <c r="D37" s="6">
+        <v>0</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
         <v>250</v>
       </c>
-      <c r="D37">
+      <c r="H37">
         <v>2500</v>
       </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
         <v>250</v>
       </c>
-      <c r="G37">
+      <c r="K37">
         <v>370.16</v>
       </c>
-      <c r="H37">
+      <c r="L37">
         <v>50</v>
       </c>
-      <c r="I37" s="7">
-        <v>0</v>
-      </c>
-      <c r="J37" s="6">
-        <v>0</v>
-      </c>
-      <c r="K37" s="6">
-        <v>0</v>
-      </c>
-      <c r="L37" s="6">
-        <v>0</v>
-      </c>
-      <c r="M37" s="4">
+      <c r="M37" s="7">
+        <v>0</v>
+      </c>
+      <c r="N37" s="6">
+        <v>0</v>
+      </c>
+      <c r="O37" s="6">
+        <v>0</v>
+      </c>
+      <c r="P37" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="4">
         <v>3420.16</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B38">
-        <v>0</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="6">
+        <v>0</v>
+      </c>
+      <c r="C38" s="6">
+        <v>0</v>
+      </c>
+      <c r="D38" s="6">
+        <v>0</v>
+      </c>
+      <c r="E38" s="6">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
         <v>500</v>
       </c>
-      <c r="D38">
+      <c r="H38">
         <v>500</v>
       </c>
-      <c r="E38">
-        <v>0</v>
-      </c>
-      <c r="F38">
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
         <v>100</v>
       </c>
-      <c r="G38">
+      <c r="K38">
         <v>5938</v>
       </c>
-      <c r="H38">
+      <c r="L38">
         <v>105</v>
       </c>
-      <c r="I38" s="7">
-        <v>0</v>
-      </c>
-      <c r="J38" s="6">
-        <v>0</v>
-      </c>
-      <c r="K38" s="6">
-        <v>0</v>
-      </c>
-      <c r="L38" s="6">
-        <v>0</v>
-      </c>
-      <c r="M38" s="4">
+      <c r="M38" s="7">
+        <v>0</v>
+      </c>
+      <c r="N38" s="6">
+        <v>0</v>
+      </c>
+      <c r="O38" s="6">
+        <v>0</v>
+      </c>
+      <c r="P38" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="4">
         <v>7143</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>0</v>
-      </c>
-      <c r="D39">
+      <c r="B39" s="6">
+        <v>0</v>
+      </c>
+      <c r="C39" s="6">
+        <v>0</v>
+      </c>
+      <c r="D39" s="6">
+        <v>0</v>
+      </c>
+      <c r="E39" s="6">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
         <v>100</v>
       </c>
-      <c r="E39">
+      <c r="I39">
         <v>125</v>
       </c>
-      <c r="F39">
+      <c r="J39">
         <v>45.16</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39" s="7">
-        <v>0</v>
-      </c>
-      <c r="J39" s="6">
-        <v>0</v>
-      </c>
-      <c r="K39" s="6">
-        <v>0</v>
-      </c>
-      <c r="L39" s="6">
-        <v>0</v>
-      </c>
-      <c r="M39" s="4">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" s="7">
+        <v>0</v>
+      </c>
+      <c r="N39" s="6">
+        <v>0</v>
+      </c>
+      <c r="O39" s="6">
+        <v>0</v>
+      </c>
+      <c r="P39" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="4">
         <v>270.16000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="6">
+        <v>0</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6">
+        <v>0</v>
+      </c>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40">
         <v>2700</v>
       </c>
-      <c r="C40">
+      <c r="G40">
         <v>1500</v>
       </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
         <v>420.16</v>
       </c>
-      <c r="G40">
+      <c r="K40">
         <v>150</v>
       </c>
-      <c r="H40">
+      <c r="L40">
         <v>2825</v>
       </c>
-      <c r="I40" s="7">
-        <v>0</v>
-      </c>
-      <c r="J40" s="6">
-        <v>0</v>
-      </c>
-      <c r="K40" s="6">
-        <v>0</v>
-      </c>
-      <c r="L40" s="6">
-        <v>0</v>
-      </c>
-      <c r="M40" s="4">
+      <c r="M40" s="7">
+        <v>0</v>
+      </c>
+      <c r="N40" s="6">
+        <v>0</v>
+      </c>
+      <c r="O40" s="6">
+        <v>0</v>
+      </c>
+      <c r="P40" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="4">
         <v>7595.16</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="B41">
-        <v>0</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
+      <c r="B41" s="6">
+        <v>0</v>
+      </c>
+      <c r="C41" s="6">
+        <v>0</v>
+      </c>
+      <c r="D41" s="6">
+        <v>0</v>
+      </c>
+      <c r="E41" s="6">
         <v>0</v>
       </c>
       <c r="F41">
@@ -2734,241 +3222,313 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41" s="7">
-        <v>0</v>
-      </c>
-      <c r="J41" s="6">
-        <v>0</v>
-      </c>
-      <c r="K41" s="6">
-        <v>0</v>
-      </c>
-      <c r="L41" s="6">
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
         <v>0</v>
       </c>
       <c r="M41" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="6">
+        <v>0</v>
+      </c>
+      <c r="O41" s="6">
+        <v>0</v>
+      </c>
+      <c r="P41" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="6">
+        <v>0</v>
+      </c>
+      <c r="C42" s="6">
+        <v>0</v>
+      </c>
+      <c r="D42" s="6">
+        <v>0</v>
+      </c>
+      <c r="E42" s="6">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
         <v>1000</v>
       </c>
-      <c r="D42">
+      <c r="H42">
         <v>750</v>
       </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
         <v>230.16</v>
       </c>
-      <c r="G42">
+      <c r="K42">
         <v>35</v>
       </c>
-      <c r="H42">
+      <c r="L42">
         <v>46.1</v>
       </c>
-      <c r="I42" s="7">
-        <v>0</v>
-      </c>
-      <c r="J42" s="6">
-        <v>0</v>
-      </c>
-      <c r="K42" s="6">
-        <v>0</v>
-      </c>
-      <c r="L42" s="6">
-        <v>0</v>
-      </c>
-      <c r="M42" s="4">
+      <c r="M42" s="7">
+        <v>0</v>
+      </c>
+      <c r="N42" s="6">
+        <v>0</v>
+      </c>
+      <c r="O42" s="6">
+        <v>0</v>
+      </c>
+      <c r="P42" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="4">
         <v>2061.2600000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="6">
+        <v>0</v>
+      </c>
+      <c r="C43" s="6">
+        <v>0</v>
+      </c>
+      <c r="D43" s="6">
+        <v>0</v>
+      </c>
+      <c r="E43" s="6">
+        <v>0</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
         <v>500</v>
       </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43" s="7">
-        <v>0</v>
-      </c>
-      <c r="J43" s="6">
-        <v>0</v>
-      </c>
-      <c r="K43" s="6">
-        <v>0</v>
-      </c>
-      <c r="L43" s="6">
-        <v>0</v>
-      </c>
-      <c r="M43" s="4">
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" s="7">
+        <v>0</v>
+      </c>
+      <c r="N43" s="6">
+        <v>0</v>
+      </c>
+      <c r="O43" s="6">
+        <v>0</v>
+      </c>
+      <c r="P43" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="4">
         <v>500</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="6">
+        <v>0</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0</v>
+      </c>
+      <c r="D44" s="6">
+        <v>0</v>
+      </c>
+      <c r="E44" s="6">
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
         <v>750</v>
       </c>
-      <c r="D44">
+      <c r="H44">
         <v>100</v>
       </c>
-      <c r="E44">
+      <c r="I44">
         <v>100</v>
       </c>
-      <c r="F44">
+      <c r="J44">
         <v>100</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
-      <c r="H44">
-        <v>0</v>
-      </c>
-      <c r="I44" s="7">
-        <v>0</v>
-      </c>
-      <c r="J44" s="6">
-        <v>0</v>
-      </c>
-      <c r="K44" s="6">
-        <v>0</v>
-      </c>
-      <c r="L44" s="6">
-        <v>0</v>
-      </c>
-      <c r="M44" s="4">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" s="7">
+        <v>0</v>
+      </c>
+      <c r="N44" s="6">
+        <v>0</v>
+      </c>
+      <c r="O44" s="6">
+        <v>0</v>
+      </c>
+      <c r="P44" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="4">
         <v>1050</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="6">
+        <v>0</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0</v>
+      </c>
+      <c r="D45" s="6">
+        <v>0</v>
+      </c>
+      <c r="E45" s="6">
+        <v>0</v>
+      </c>
+      <c r="F45">
         <v>500</v>
       </c>
-      <c r="C45">
+      <c r="G45">
         <v>21250</v>
       </c>
-      <c r="D45">
+      <c r="H45">
         <v>1950</v>
       </c>
-      <c r="E45">
+      <c r="I45">
         <v>7450</v>
       </c>
-      <c r="F45">
+      <c r="J45">
         <v>4282</v>
       </c>
-      <c r="G45">
+      <c r="K45">
         <v>8528</v>
       </c>
-      <c r="H45">
+      <c r="L45">
         <v>1200</v>
       </c>
-      <c r="I45" s="7">
-        <v>0</v>
-      </c>
-      <c r="J45" s="6">
-        <v>0</v>
-      </c>
-      <c r="K45" s="6">
-        <v>0</v>
-      </c>
-      <c r="L45" s="6">
-        <v>0</v>
-      </c>
-      <c r="M45" s="4">
+      <c r="M45" s="7">
+        <v>0</v>
+      </c>
+      <c r="N45" s="6">
+        <v>0</v>
+      </c>
+      <c r="O45" s="6">
+        <v>0</v>
+      </c>
+      <c r="P45" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="4">
         <v>45160</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B46">
-        <v>0</v>
-      </c>
-      <c r="C46">
-        <v>0</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-      <c r="E46">
+      <c r="B46" s="6">
+        <v>0</v>
+      </c>
+      <c r="C46" s="6">
+        <v>0</v>
+      </c>
+      <c r="D46" s="6">
+        <v>0</v>
+      </c>
+      <c r="E46" s="6">
         <v>0</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
         <v>250</v>
       </c>
-      <c r="H46">
-        <v>0</v>
-      </c>
-      <c r="I46" s="7">
-        <v>0</v>
-      </c>
-      <c r="J46" s="6">
-        <v>0</v>
-      </c>
-      <c r="K46" s="6">
-        <v>0</v>
-      </c>
-      <c r="L46" s="6">
-        <v>0</v>
-      </c>
-      <c r="M46" s="4">
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0</v>
+      </c>
+      <c r="N46" s="6">
+        <v>0</v>
+      </c>
+      <c r="O46" s="6">
+        <v>0</v>
+      </c>
+      <c r="P46" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="4">
         <v>250</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="B47">
-        <v>0</v>
-      </c>
-      <c r="C47">
-        <v>0</v>
-      </c>
-      <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
+      <c r="B47" s="6">
+        <v>0</v>
+      </c>
+      <c r="C47" s="6">
+        <v>0</v>
+      </c>
+      <c r="D47" s="6">
+        <v>0</v>
+      </c>
+      <c r="E47" s="6">
         <v>0</v>
       </c>
       <c r="F47">
@@ -2980,118 +3540,154 @@
       <c r="H47">
         <v>0</v>
       </c>
-      <c r="I47" s="7">
-        <v>0</v>
-      </c>
-      <c r="J47" s="6">
-        <v>0</v>
-      </c>
-      <c r="K47" s="6">
-        <v>0</v>
-      </c>
-      <c r="L47" s="6">
-        <v>0</v>
-      </c>
-      <c r="M47" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" s="7">
+        <v>0</v>
+      </c>
+      <c r="N47" s="6">
+        <v>0</v>
+      </c>
+      <c r="O47" s="6">
+        <v>0</v>
+      </c>
+      <c r="P47" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="6">
+        <v>0</v>
+      </c>
+      <c r="C48" s="6">
+        <v>0</v>
+      </c>
+      <c r="D48" s="6">
+        <v>0</v>
+      </c>
+      <c r="E48" s="6">
+        <v>0</v>
+      </c>
+      <c r="F48">
         <v>250</v>
       </c>
-      <c r="C48">
+      <c r="G48">
         <v>9866</v>
       </c>
-      <c r="D48">
+      <c r="H48">
         <v>1100</v>
       </c>
-      <c r="E48">
+      <c r="I48">
         <v>1200</v>
       </c>
-      <c r="F48">
+      <c r="J48">
         <v>200</v>
       </c>
-      <c r="G48">
+      <c r="K48">
         <v>7100</v>
       </c>
-      <c r="H48">
-        <v>0</v>
-      </c>
-      <c r="I48" s="7">
-        <v>0</v>
-      </c>
-      <c r="J48" s="6">
-        <v>0</v>
-      </c>
-      <c r="K48" s="6">
-        <v>0</v>
-      </c>
-      <c r="L48" s="6">
-        <v>0</v>
-      </c>
-      <c r="M48" s="4">
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" s="7">
+        <v>0</v>
+      </c>
+      <c r="N48" s="6">
+        <v>0</v>
+      </c>
+      <c r="O48" s="6">
+        <v>0</v>
+      </c>
+      <c r="P48" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="4">
         <v>19716</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B49">
-        <v>0</v>
-      </c>
-      <c r="C49">
+      <c r="B49" s="6">
+        <v>0</v>
+      </c>
+      <c r="C49" s="6">
+        <v>0</v>
+      </c>
+      <c r="D49" s="6">
+        <v>0</v>
+      </c>
+      <c r="E49" s="6">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
         <v>250</v>
       </c>
-      <c r="D49">
+      <c r="H49">
         <v>3300</v>
       </c>
-      <c r="E49">
+      <c r="I49">
         <v>1250</v>
       </c>
-      <c r="F49">
+      <c r="J49">
         <v>50</v>
       </c>
-      <c r="G49">
+      <c r="K49">
         <v>370.16</v>
       </c>
-      <c r="H49">
+      <c r="L49">
         <v>1011.1</v>
       </c>
-      <c r="I49" s="7">
-        <v>0</v>
-      </c>
-      <c r="J49" s="6">
-        <v>0</v>
-      </c>
-      <c r="K49" s="6">
-        <v>0</v>
-      </c>
-      <c r="L49" s="6">
-        <v>0</v>
-      </c>
-      <c r="M49" s="4">
+      <c r="M49" s="7">
+        <v>0</v>
+      </c>
+      <c r="N49" s="6">
+        <v>0</v>
+      </c>
+      <c r="O49" s="6">
+        <v>0</v>
+      </c>
+      <c r="P49" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="4">
         <v>6231.26</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B50">
-        <v>0</v>
-      </c>
-      <c r="C50">
-        <v>0</v>
-      </c>
-      <c r="D50">
-        <v>0</v>
-      </c>
-      <c r="E50">
+      <c r="B50" s="6">
+        <v>0</v>
+      </c>
+      <c r="C50" s="6">
+        <v>0</v>
+      </c>
+      <c r="D50" s="6">
+        <v>0</v>
+      </c>
+      <c r="E50" s="6">
         <v>0</v>
       </c>
       <c r="F50">
@@ -3103,77 +3699,101 @@
       <c r="H50">
         <v>0</v>
       </c>
-      <c r="I50" s="7">
-        <v>0</v>
-      </c>
-      <c r="J50" s="6">
-        <v>0</v>
-      </c>
-      <c r="K50" s="6">
-        <v>0</v>
-      </c>
-      <c r="L50" s="6">
-        <v>0</v>
-      </c>
-      <c r="M50" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" s="7">
+        <v>0</v>
+      </c>
+      <c r="N50" s="6">
+        <v>0</v>
+      </c>
+      <c r="O50" s="6">
+        <v>0</v>
+      </c>
+      <c r="P50" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B51">
-        <v>0</v>
-      </c>
-      <c r="C51">
-        <v>0</v>
-      </c>
-      <c r="D51">
+      <c r="B51" s="6">
+        <v>0</v>
+      </c>
+      <c r="C51" s="6">
+        <v>0</v>
+      </c>
+      <c r="D51" s="6">
+        <v>0</v>
+      </c>
+      <c r="E51" s="6">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>0</v>
+      </c>
+      <c r="H51">
         <v>5400</v>
       </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>0</v>
-      </c>
-      <c r="G51">
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
         <v>11800</v>
       </c>
-      <c r="H51">
+      <c r="L51">
         <v>14800</v>
       </c>
-      <c r="I51" s="7">
-        <v>0</v>
-      </c>
-      <c r="J51" s="6">
-        <v>0</v>
-      </c>
-      <c r="K51" s="6">
-        <v>0</v>
-      </c>
-      <c r="L51" s="6">
-        <v>0</v>
-      </c>
-      <c r="M51" s="4">
+      <c r="M51" s="7">
+        <v>0</v>
+      </c>
+      <c r="N51" s="6">
+        <v>0</v>
+      </c>
+      <c r="O51" s="6">
+        <v>0</v>
+      </c>
+      <c r="P51" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="4">
         <v>32000</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B52">
-        <v>0</v>
-      </c>
-      <c r="C52">
-        <v>0</v>
-      </c>
-      <c r="D52">
-        <v>0</v>
-      </c>
-      <c r="E52">
+      <c r="B52" s="6">
+        <v>0</v>
+      </c>
+      <c r="C52" s="6">
+        <v>0</v>
+      </c>
+      <c r="D52" s="6">
+        <v>0</v>
+      </c>
+      <c r="E52" s="6">
         <v>0</v>
       </c>
       <c r="F52">
@@ -3185,33 +3805,45 @@
       <c r="H52">
         <v>0</v>
       </c>
-      <c r="I52" s="7">
-        <v>0</v>
-      </c>
-      <c r="J52" s="6">
-        <v>0</v>
-      </c>
-      <c r="K52" s="6">
-        <v>0</v>
-      </c>
-      <c r="L52" s="6">
-        <v>0</v>
-      </c>
-      <c r="M52" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" s="7">
+        <v>0</v>
+      </c>
+      <c r="N52" s="6">
+        <v>0</v>
+      </c>
+      <c r="O52" s="6">
+        <v>0</v>
+      </c>
+      <c r="P52" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
       <c r="M54" s="4"/>
+      <c r="N54" s="4"/>
+      <c r="O54" s="4"/>
+      <c r="Q54" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
